--- a/EG4301 Budget + BOM.xlsx
+++ b/EG4301 Budget + BOM.xlsx
@@ -5,37 +5,24 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repos\IS401\Main\Agritech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wong_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1968D8-5E05-4104-84F1-FD04982980E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B24024-CCDA-4CA2-8A13-6AE5495E4B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
     <sheet name="RAC_BOM" sheetId="2" r:id="rId2"/>
     <sheet name="Testing_Ref_Design_BOM" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Claimant</t>
   </si>
@@ -70,21 +57,12 @@
     <t>Server +Dashboard</t>
   </si>
   <si>
-    <t>Aws</t>
-  </si>
-  <si>
-    <t>Free[2]</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Note:</t>
   </si>
   <si>
-    <t>Tableau</t>
-  </si>
-  <si>
     <t>[1] Convertion rate of 1 USD = 1.36 SGD</t>
   </si>
   <si>
@@ -100,9 +78,6 @@
     <t>12.90</t>
   </si>
   <si>
-    <t>[2] Free under certina usage conditions</t>
-  </si>
-  <si>
     <t>Sensor</t>
   </si>
   <si>
@@ -200,6 +175,27 @@
   </si>
   <si>
     <t>Budget Remaining</t>
+  </si>
+  <si>
+    <t>JunLin</t>
+  </si>
+  <si>
+    <t>Tableau + Rockset</t>
+  </si>
+  <si>
+    <t>AWS Cloud Services</t>
+  </si>
+  <si>
+    <t>Free tier[2]</t>
+  </si>
+  <si>
+    <t>Free[4]</t>
+  </si>
+  <si>
+    <t>[4]Limited usage, not in First reference design final iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2] Free under certain usage </t>
   </si>
 </sst>
 </file>
@@ -365,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -394,7 +390,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,9 +408,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -453,7 +448,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -559,7 +554,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -701,7 +696,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -709,20 +704,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AF66C0-EE55-2146-8168-9FEEE930367D}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -743,22 +738,22 @@
       <c r="C2">
         <v>1164.3599999999999</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="26">
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2">
         <f>SUM(C:C)</f>
-        <v>1925.8099999999997</v>
+        <v>2056.96</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I2">
         <f>RAC_BOM!F18</f>
         <v>371.39400000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -769,14 +764,14 @@
         <v>69.25</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <f>4000-F2</f>
-        <v>2074.1900000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1943.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -787,7 +782,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -798,7 +793,7 @@
         <v>322.76</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -809,7 +804,7 @@
         <v>146.02000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -820,7 +815,7 @@
         <v>138.85</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -829,6 +824,39 @@
       </c>
       <c r="C8">
         <v>54.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45231</v>
+      </c>
+      <c r="C10">
+        <v>18.239999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45245</v>
+      </c>
+      <c r="C11">
+        <v>67.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45271</v>
+      </c>
+      <c r="C12">
+        <v>45.78</v>
       </c>
     </row>
   </sheetData>
@@ -840,21 +868,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2374A26-DDA7-404D-9D6F-1A4C0A8F24F1}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -874,57 +902,57 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -934,21 +962,21 @@
         <v>38.700000000000003</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -958,19 +986,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -979,17 +1007,20 @@
         <f t="shared" si="0"/>
         <v>53.720000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E7" s="9">
         <v>1</v>
@@ -999,13 +1030,13 @@
         <v>108.66400000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="20">
         <v>50</v>
@@ -1018,18 +1049,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1039,16 +1070,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1058,54 +1089,54 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5">
         <v>7</v>
@@ -1115,16 +1146,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1134,18 +1165,18 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1155,16 +1186,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1174,16 +1205,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
@@ -1193,9 +1224,9 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E18" s="24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F18" s="25">
         <f>SUM(F2:F17)</f>
@@ -1213,7 +1244,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EG4301 Budget + BOM.xlsx
+++ b/EG4301 Budget + BOM.xlsx
@@ -5,24 +5,37 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wong_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65833\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B24024-CCDA-4CA2-8A13-6AE5495E4B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8F53F4-9F3B-4268-BADF-09E895E228BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
     <sheet name="RAC_BOM" sheetId="2" r:id="rId2"/>
     <sheet name="Testing_Ref_Design_BOM" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>Claimant</t>
   </si>
@@ -196,6 +209,9 @@
   </si>
   <si>
     <t xml:space="preserve">[2] Free under certain usage </t>
+  </si>
+  <si>
+    <t>Derek</t>
   </si>
 </sst>
 </file>
@@ -408,9 +424,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -448,7 +464,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -554,7 +570,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -696,7 +712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,20 +720,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AF66C0-EE55-2146-8168-9FEEE930367D}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.90625" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -743,7 +759,7 @@
       </c>
       <c r="F2">
         <f>SUM(C:C)</f>
-        <v>2056.96</v>
+        <v>2359.4300000000003</v>
       </c>
       <c r="H2" t="s">
         <v>49</v>
@@ -753,7 +769,7 @@
         <v>371.39400000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -768,10 +784,10 @@
       </c>
       <c r="F3">
         <f>4000-F2</f>
-        <v>1943.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1640.5699999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -782,7 +798,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -793,7 +809,7 @@
         <v>322.76</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -804,7 +820,7 @@
         <v>146.02000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -815,7 +831,7 @@
         <v>138.85</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -826,7 +842,7 @@
         <v>54.55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -837,7 +853,7 @@
         <v>18.239999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -848,7 +864,7 @@
         <v>67.13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -857,6 +873,17 @@
       </c>
       <c r="C12">
         <v>45.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45212</v>
+      </c>
+      <c r="C14">
+        <v>302.47000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -868,21 +895,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2374A26-DDA7-404D-9D6F-1A4C0A8F24F1}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -902,7 +929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -923,7 +950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" t="s">
         <v>52</v>
@@ -941,7 +968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -965,7 +992,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -989,7 +1016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="15" t="s">
         <v>22</v>
@@ -1011,7 +1038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="16" t="s">
         <v>25</v>
@@ -1030,7 +1057,7 @@
         <v>108.66400000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
         <v>27</v>
@@ -1049,7 +1076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -1070,7 +1097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="15" t="s">
         <v>31</v>
@@ -1089,7 +1116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="15" t="s">
         <v>33</v>
@@ -1107,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="15" t="s">
         <v>35</v>
@@ -1125,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1146,7 +1173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="15" t="s">
         <v>38</v>
@@ -1165,7 +1192,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>40</v>
       </c>
@@ -1186,7 +1213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="15" t="s">
         <v>43</v>
@@ -1205,7 +1232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="16" t="s">
         <v>45</v>
@@ -1224,7 +1251,7 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E18" s="24" t="s">
         <v>47</v>
       </c>
@@ -1244,7 +1271,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
